--- a/TestData/TMTI0045436_Verify_Client_Services_Questionnaire_Button_Functionality.xlsx
+++ b/TestData/TMTI0045436_Verify_Client_Services_Questionnaire_Button_Functionality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11AFD26-73E2-4C3A-8132-443FE45FDC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3348A66-E05C-40E1-A7AD-6075CD25DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>James Craven</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Case Testing Notes</t>
+  </si>
+  <si>
+    <t>DealerSocket</t>
   </si>
 </sst>
 </file>
@@ -540,13 +543,13 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -575,42 +578,42 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -625,16 +628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8595158D-A0FC-4AD8-A8D3-6F1514762D10}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -642,17 +645,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -660,7 +663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -668,12 +671,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -685,19 +688,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F041AD60-3857-4F3C-8C1A-AC4CC9BF644A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -705,11 +709,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -727,12 +734,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -740,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -759,17 +766,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -787,22 +794,22 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -821,13 +828,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,15 +842,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="2"/>
     </row>
   </sheetData>
@@ -860,28 +867,28 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -899,17 +906,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -946,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -957,7 +964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -968,7 +975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -999,15 +1006,15 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1094,12 +1101,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
